--- a/document/chatbot_代码走读纪要.xlsx
+++ b/document/chatbot_代码走读纪要.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>代码走读纪要</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>李充厅</t>
+  </si>
+  <si>
+    <t>播放音乐时需开启新的网页，不在原网页上刷新</t>
+  </si>
+  <si>
+    <t>app.vue</t>
+  </si>
+  <si>
+    <t>音乐界面应保存歌曲信息，刷新后重新播放</t>
   </si>
   <si>
     <t>6B</t>
@@ -165,8 +174,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -215,13 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -231,22 +233,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,9 +254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +285,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,17 +323,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,20 +354,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,19 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,25 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,49 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,25 +501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,13 +531,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,51 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -820,6 +778,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -828,6 +816,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -836,10 +839,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,133 +851,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,7 +1515,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1778,24 +1781,48 @@
       <c r="A13" s="27">
         <v>6</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="31">
+        <v>43686</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="27">
         <v>7</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="31">
+        <v>43686</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8">
@@ -2161,11 +2188,11 @@
     <mergeCell ref="G5:H5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
-      <formula1>"已解决,未解决,其他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"会议,邮件,结对"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
+      <formula1>"完成,延误,进行中,取消"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
       <formula1>"通过,待改善"</formula1>
@@ -2173,8 +2200,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G22 G25:G34 G37:G43">
       <formula1>"已修改,未修改,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
-      <formula1>"完成,延误,进行中,取消"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
+      <formula1>"已解决,未解决,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2252,7 +2279,7 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3" s="15"/>
     </row>
@@ -2771,11 +2798,11 @@
     <mergeCell ref="G5:H5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
-      <formula1>"已解决,未解决,其他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"会议,邮件,结对"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
+      <formula1>"完成,延误,进行中,取消"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
       <formula1>"通过,待改善"</formula1>
@@ -2783,8 +2810,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G22 G25:G34 G37:G43">
       <formula1>"已修改,未修改,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
-      <formula1>"完成,延误,进行中,取消"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
+      <formula1>"已解决,未解决,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,7 +2886,7 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3" s="15"/>
     </row>
@@ -3378,11 +3405,11 @@
     <mergeCell ref="G5:H5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
-      <formula1>"已解决,未解决,其他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"会议,邮件,结对"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
+      <formula1>"完成,延误,进行中,取消"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
       <formula1>"通过,待改善"</formula1>
@@ -3390,8 +3417,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G22 G25:G34 G37:G43">
       <formula1>"已修改,未修改,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
-      <formula1>"完成,延误,进行中,取消"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
+      <formula1>"已解决,未解决,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/chatbot_代码走读纪要.xlsx
+++ b/document/chatbot_代码走读纪要.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>代码走读纪要</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>app.vue</t>
+  </si>
+  <si>
+    <t>取消</t>
   </si>
   <si>
     <t>音乐界面应保存歌曲信息，刷新后重新播放</t>
@@ -174,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -218,23 +221,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -255,9 +249,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,6 +282,60 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,78 +355,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,7 +384,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +474,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,133 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +733,39 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,15 +796,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -793,30 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -836,148 +839,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1515,7 +1518,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1797,7 +1800,7 @@
         <v>43686</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H13" s="27"/>
     </row>
@@ -1806,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>45</v>
@@ -1821,7 +1824,7 @@
         <v>43686</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="27"/>
     </row>
@@ -2191,17 +2194,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"会议,邮件,结对"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>"通过,待改善"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
+      <formula1>"已解决,未解决,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
       <formula1>"完成,延误,进行中,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"通过,待改善"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G22 G25:G34 G37:G43">
       <formula1>"已修改,未修改,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
-      <formula1>"已解决,未解决,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="15"/>
     </row>
@@ -2801,17 +2804,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"会议,邮件,结对"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>"通过,待改善"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
+      <formula1>"已解决,未解决,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
       <formula1>"完成,延误,进行中,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"通过,待改善"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G22 G25:G34 G37:G43">
       <formula1>"已修改,未修改,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
-      <formula1>"已解决,未解决,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="15"/>
     </row>
@@ -3408,17 +3411,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"会议,邮件,结对"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>"通过,待改善"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
+      <formula1>"已解决,未解决,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G15 G23:G24 G35:G36">
       <formula1>"完成,延误,进行中,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"通过,待改善"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G22 G25:G34 G37:G43">
       <formula1>"已修改,未修改,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H43">
-      <formula1>"已解决,未解决,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/chatbot_代码走读纪要.xlsx
+++ b/document/chatbot_代码走读纪要.xlsx
@@ -165,16 +165,18 @@
     <t>播放音乐时需开启新的网页，不在原网页上刷新</t>
   </si>
   <si>
-    <t>app.vue</t>
-  </si>
-  <si>
     <t>音乐界面应保存歌曲信息，刷新后重新播放</t>
   </si>
   <si>
     <t>6B</t>
   </si>
   <si>
-    <t>取消</t>
+    <t>playing.vue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>playing.vue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,6 +502,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -508,12 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -528,21 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,7 +919,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -932,16 +934,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -960,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="31"/>
-      <c r="G2" s="32">
+      <c r="G2" s="37">
         <v>43685</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -982,24 +984,24 @@
         <v>9</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1018,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="31"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
@@ -1187,7 +1189,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>33</v>
@@ -1199,7 +1201,7 @@
         <v>43686</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1208,10 +1210,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>37</v>
@@ -1223,7 +1225,7 @@
         <v>43686</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -1611,7 +1613,7 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1636,16 +1638,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1660,8 +1662,8 @@
         <v>5</v>
       </c>
       <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1680,22 +1682,22 @@
         <v>9</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="35"/>
+      <c r="G3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1712,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="31"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
@@ -2243,16 +2245,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2267,8 +2269,8 @@
         <v>5</v>
       </c>
       <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2287,22 +2289,22 @@
         <v>9</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="35"/>
+      <c r="G3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -2319,10 +2321,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="31"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
